--- a/leave/src/main/resources/TestData/Sanity/Accural/MultipleLeaveAllotment.xlsx
+++ b/leave/src/main/resources/TestData/Sanity/Accural/MultipleLeaveAllotment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Sanity\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1195BD2-2B83-4805-9449-4C40629D4521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033B51BA-4F6F-4F6B-9630-9782AC6DBA44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financial" sheetId="7" r:id="rId1"/>
@@ -836,9 +836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F381A8BD-60B5-4910-A80C-D73D38EE81B1}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -931,7 +931,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>78</v>
@@ -1008,7 +1008,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>79</v>
@@ -3034,7 +3034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE3C00F-03E3-4462-99A6-6BB8FEF9B049}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
